--- a/WpfApplication2/完成イメージ図.xlsx
+++ b/WpfApplication2/完成イメージ図.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="クラス構成 " sheetId="3" r:id="rId3"/>
+    <sheet name="Model関連の図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -3368,6 +3369,799 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959DDA87-A9D7-4AF6-961E-4F4B20EF6D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="485775"/>
+          <a:ext cx="2486025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MainWindow.xaml</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7609F6-77D5-4612-A6B4-359625583D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="485775"/>
+          <a:ext cx="2486025" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MainWindowViewModel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39600D89-C1DD-4E90-B307-54E13B970F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="1695450"/>
+          <a:ext cx="3019425" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FolderTreePanelViewModel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エクスプローラの左側っぽいやつ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A759EBD3-BC1E-4BF8-B76B-777DE21E1257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="4600575"/>
+          <a:ext cx="2486025" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FileViewPanelViewModel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB8FEC4-B9F9-42A0-8064-A4349BEF8CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3181350" y="814388"/>
+          <a:ext cx="952500" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DF9333-23B3-4515-B52C-FD8F9D73D024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5174457" y="1345406"/>
+          <a:ext cx="866775" cy="461962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36C2A8D-A76A-470F-BC5F-8F6C21467B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3752850" y="2767013"/>
+          <a:ext cx="3729038" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64F0E81-66BC-432D-AC06-C10017B28C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2638424"/>
+          <a:ext cx="4343400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FolderManagementPanelViewModel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フォルダを追加・削除をする操作を提供</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A10A00-8CAD-490B-BE55-E7D55CA030FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7286626" y="2386012"/>
+          <a:ext cx="661987" cy="538162"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9351CC8-2A47-400C-AE3F-A9E61BF6A2D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="3590924"/>
+          <a:ext cx="4343400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FolderManagementPanelViewModel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フォルダツリー本体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ED33A1-5FA8-444D-9D7D-CDDDBC4EE95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6815138" y="2857499"/>
+          <a:ext cx="1614487" cy="547687"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3752,7 +4546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3796,4 +4590,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WpfApplication2/完成イメージ図.xlsx
+++ b/WpfApplication2/完成イメージ図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4506,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4596,7 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
